--- a/Excel/EquipStrengthFeeConfig.xlsx
+++ b/Excel/EquipStrengthFeeConfig.xlsx
@@ -988,10 +988,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:XER12"/>
+  <dimension ref="A1:XER15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1097,10 +1097,10 @@
         <v>1001</v>
       </c>
       <c r="E7" s="2">
-        <v>10000</v>
+        <v>2000</v>
       </c>
       <c r="F7" s="2">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="XEQ7" s="2"/>
       <c r="XER7" s="2"/>
@@ -1112,13 +1112,13 @@
         <v>3</v>
       </c>
       <c r="D8" s="2">
-        <v>10001</v>
+        <v>2001</v>
       </c>
       <c r="E8" s="2">
-        <v>50000</v>
+        <v>5000</v>
       </c>
       <c r="F8" s="2">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="XEQ8" s="2"/>
       <c r="XER8" s="2"/>
@@ -1130,13 +1130,13 @@
         <v>4</v>
       </c>
       <c r="D9" s="2">
-        <v>50001</v>
+        <v>5001</v>
       </c>
       <c r="E9" s="2">
-        <v>100000</v>
+        <v>10000</v>
       </c>
       <c r="F9" s="2">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="XEQ9" s="2"/>
       <c r="XER9" s="2"/>
@@ -1148,13 +1148,13 @@
         <v>5</v>
       </c>
       <c r="D10" s="2">
-        <v>100001</v>
+        <v>10001</v>
       </c>
       <c r="E10" s="2">
-        <v>200000</v>
+        <v>20000</v>
       </c>
       <c r="F10" s="2">
-        <v>50000</v>
+        <v>25000</v>
       </c>
       <c r="XEQ10" s="2"/>
       <c r="XER10" s="2"/>
@@ -1166,13 +1166,13 @@
         <v>6</v>
       </c>
       <c r="D11" s="2">
-        <v>200001</v>
+        <v>20001</v>
       </c>
       <c r="E11" s="2">
-        <v>1000000</v>
+        <v>50000</v>
       </c>
       <c r="F11" s="2">
-        <v>100000</v>
+        <v>50000</v>
       </c>
       <c r="XEQ11" s="2"/>
       <c r="XER11" s="2"/>
@@ -1184,16 +1184,70 @@
         <v>7</v>
       </c>
       <c r="D12" s="2">
-        <v>1000001</v>
+        <v>50001</v>
       </c>
       <c r="E12" s="2">
-        <v>999999999</v>
+        <v>100000</v>
       </c>
       <c r="F12" s="2">
-        <v>1000000</v>
+        <v>100000</v>
       </c>
       <c r="XEQ12" s="2"/>
       <c r="XER12" s="2"/>
+    </row>
+    <row r="13" customFormat="1" spans="1:16372">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2">
+        <v>8</v>
+      </c>
+      <c r="D13" s="2">
+        <v>100001</v>
+      </c>
+      <c r="E13" s="2">
+        <v>300000</v>
+      </c>
+      <c r="F13" s="2">
+        <v>300000</v>
+      </c>
+      <c r="XEQ13" s="2"/>
+      <c r="XER13" s="2"/>
+    </row>
+    <row r="14" customFormat="1" spans="1:16372">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2">
+        <v>9</v>
+      </c>
+      <c r="D14" s="2">
+        <v>300001</v>
+      </c>
+      <c r="E14" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="F14" s="2">
+        <v>700000</v>
+      </c>
+      <c r="XEQ14" s="2"/>
+      <c r="XER14" s="2"/>
+    </row>
+    <row r="15" customFormat="1" spans="1:16372">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2">
+        <v>10</v>
+      </c>
+      <c r="D15" s="2">
+        <v>1000001</v>
+      </c>
+      <c r="E15" s="2">
+        <v>999999999</v>
+      </c>
+      <c r="F15" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="XEQ15" s="2"/>
+      <c r="XER15" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/EquipStrengthFeeConfig.xlsx
+++ b/Excel/EquipStrengthFeeConfig.xlsx
@@ -988,10 +988,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:XER15"/>
+  <dimension ref="A1:XER16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1118,7 +1118,7 @@
         <v>5000</v>
       </c>
       <c r="F8" s="2">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="XEQ8" s="2"/>
       <c r="XER8" s="2"/>
@@ -1136,7 +1136,7 @@
         <v>10000</v>
       </c>
       <c r="F9" s="2">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="XEQ9" s="2"/>
       <c r="XER9" s="2"/>
@@ -1154,7 +1154,7 @@
         <v>20000</v>
       </c>
       <c r="F10" s="2">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="XEQ10" s="2"/>
       <c r="XER10" s="2"/>
@@ -1172,7 +1172,7 @@
         <v>50000</v>
       </c>
       <c r="F11" s="2">
-        <v>50000</v>
+        <v>35000</v>
       </c>
       <c r="XEQ11" s="2"/>
       <c r="XER11" s="2"/>
@@ -1190,7 +1190,7 @@
         <v>100000</v>
       </c>
       <c r="F12" s="2">
-        <v>100000</v>
+        <v>75000</v>
       </c>
       <c r="XEQ12" s="2"/>
       <c r="XER12" s="2"/>
@@ -1208,7 +1208,7 @@
         <v>300000</v>
       </c>
       <c r="F13" s="2">
-        <v>300000</v>
+        <v>150000</v>
       </c>
       <c r="XEQ13" s="2"/>
       <c r="XER13" s="2"/>
@@ -1226,7 +1226,7 @@
         <v>1000000</v>
       </c>
       <c r="F14" s="2">
-        <v>700000</v>
+        <v>500000</v>
       </c>
       <c r="XEQ14" s="2"/>
       <c r="XER14" s="2"/>
@@ -1241,13 +1241,31 @@
         <v>1000001</v>
       </c>
       <c r="E15" s="2">
-        <v>999999999</v>
+        <v>2000000</v>
       </c>
       <c r="F15" s="2">
-        <v>1000000</v>
+        <v>700000</v>
       </c>
       <c r="XEQ15" s="2"/>
       <c r="XER15" s="2"/>
+    </row>
+    <row r="16" customFormat="1" spans="1:16372">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2">
+        <v>11</v>
+      </c>
+      <c r="D16" s="2">
+        <v>2000001</v>
+      </c>
+      <c r="E16" s="2">
+        <v>999999999</v>
+      </c>
+      <c r="F16" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="XEQ16" s="2"/>
+      <c r="XER16" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/EquipStrengthFeeConfig.xlsx
+++ b/Excel/EquipStrengthFeeConfig.xlsx
@@ -988,10 +988,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:XER16"/>
+  <dimension ref="A1:XER18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1259,13 +1259,41 @@
         <v>2000001</v>
       </c>
       <c r="E16" s="2">
-        <v>999999999</v>
+        <v>3000000</v>
       </c>
       <c r="F16" s="2">
         <v>1000000</v>
       </c>
       <c r="XEQ16" s="2"/>
       <c r="XER16" s="2"/>
+    </row>
+    <row r="17" spans="3:6">
+      <c r="C17" s="2">
+        <v>12</v>
+      </c>
+      <c r="D17" s="2">
+        <v>3000001</v>
+      </c>
+      <c r="E17" s="2">
+        <v>4000000</v>
+      </c>
+      <c r="F17" s="2">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="18" spans="3:6">
+      <c r="C18" s="2">
+        <v>13</v>
+      </c>
+      <c r="D18" s="2">
+        <v>4000000</v>
+      </c>
+      <c r="E18" s="2">
+        <v>5000000</v>
+      </c>
+      <c r="F18" s="2">
+        <v>3000000</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/EquipStrengthFeeConfig.xlsx
+++ b/Excel/EquipStrengthFeeConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="11820"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -66,6 +66,34 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -79,6 +107,14 @@
       <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -123,14 +159,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -138,7 +167,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -146,6 +175,13 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -154,21 +190,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -183,28 +204,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -225,13 +225,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -249,24 +291,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -285,18 +339,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -309,36 +351,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -357,24 +375,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -388,12 +394,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -416,6 +416,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -448,21 +463,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -519,148 +519,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -672,52 +672,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -991,7 +991,7 @@
   <dimension ref="A1:XER18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1262,7 +1262,7 @@
         <v>3000000</v>
       </c>
       <c r="F16" s="2">
-        <v>1000000</v>
+        <v>800000</v>
       </c>
       <c r="XEQ16" s="2"/>
       <c r="XER16" s="2"/>
@@ -1278,7 +1278,7 @@
         <v>4000000</v>
       </c>
       <c r="F17" s="2">
-        <v>2000000</v>
+        <v>900000</v>
       </c>
     </row>
     <row r="18" spans="3:6">
@@ -1292,7 +1292,7 @@
         <v>5000000</v>
       </c>
       <c r="F18" s="2">
-        <v>3000000</v>
+        <v>1000000</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/EquipStrengthFeeConfig.xlsx
+++ b/Excel/EquipStrengthFeeConfig.xlsx
@@ -988,10 +988,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:XER18"/>
+  <dimension ref="A1:XER19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1286,13 +1286,27 @@
         <v>13</v>
       </c>
       <c r="D18" s="2">
-        <v>4000000</v>
+        <v>4000001</v>
       </c>
       <c r="E18" s="2">
         <v>5000000</v>
       </c>
       <c r="F18" s="2">
         <v>1000000</v>
+      </c>
+    </row>
+    <row r="19" spans="3:6">
+      <c r="C19" s="2">
+        <v>13</v>
+      </c>
+      <c r="D19" s="2">
+        <v>5000001</v>
+      </c>
+      <c r="E19" s="2">
+        <v>10000000</v>
+      </c>
+      <c r="F19" s="2">
+        <v>1100000</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/EquipStrengthFeeConfig.xlsx
+++ b/Excel/EquipStrengthFeeConfig.xlsx
@@ -991,7 +991,7 @@
   <dimension ref="A1:XER19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1297,7 +1297,7 @@
     </row>
     <row r="19" spans="3:6">
       <c r="C19" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D19" s="2">
         <v>5000001</v>

--- a/Excel/EquipStrengthFeeConfig.xlsx
+++ b/Excel/EquipStrengthFeeConfig.xlsx
@@ -988,10 +988,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:XER19"/>
+  <dimension ref="A1:XER20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1309,6 +1309,20 @@
         <v>1100000</v>
       </c>
     </row>
+    <row r="20" spans="3:6">
+      <c r="C20" s="2">
+        <v>15</v>
+      </c>
+      <c r="D20" s="2">
+        <v>10000001</v>
+      </c>
+      <c r="E20" s="2">
+        <v>20000000</v>
+      </c>
+      <c r="F20" s="2">
+        <v>2000000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/Excel/EquipStrengthFeeConfig.xlsx
+++ b/Excel/EquipStrengthFeeConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11820"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -66,34 +66,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -107,14 +79,6 @@
       <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -159,6 +123,21 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -204,7 +183,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -225,49 +225,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -279,121 +363,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -416,21 +416,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -463,6 +448,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -519,148 +519,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -672,52 +672,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -988,10 +988,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:XER20"/>
+  <dimension ref="A1:XER16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1079,10 +1079,10 @@
         <v>1</v>
       </c>
       <c r="E6" s="2">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="F6" s="2">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="XEQ6" s="2"/>
       <c r="XER6" s="2"/>
@@ -1094,13 +1094,14 @@
         <v>2</v>
       </c>
       <c r="D7" s="2">
-        <v>1001</v>
+        <f t="shared" ref="D7:D15" si="0">E6+1</f>
+        <v>101</v>
       </c>
       <c r="E7" s="2">
-        <v>2000</v>
+        <v>200</v>
       </c>
       <c r="F7" s="2">
-        <v>3000</v>
+        <v>200</v>
       </c>
       <c r="XEQ7" s="2"/>
       <c r="XER7" s="2"/>
@@ -1112,13 +1113,14 @@
         <v>3</v>
       </c>
       <c r="D8" s="2">
-        <v>2001</v>
+        <f t="shared" si="0"/>
+        <v>201</v>
       </c>
       <c r="E8" s="2">
-        <v>5000</v>
+        <v>500</v>
       </c>
       <c r="F8" s="2">
-        <v>5000</v>
+        <v>500</v>
       </c>
       <c r="XEQ8" s="2"/>
       <c r="XER8" s="2"/>
@@ -1130,13 +1132,14 @@
         <v>4</v>
       </c>
       <c r="D9" s="2">
-        <v>5001</v>
+        <f t="shared" si="0"/>
+        <v>501</v>
       </c>
       <c r="E9" s="2">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="F9" s="2">
-        <v>7000</v>
+        <v>1000</v>
       </c>
       <c r="XEQ9" s="2"/>
       <c r="XER9" s="2"/>
@@ -1148,13 +1151,14 @@
         <v>5</v>
       </c>
       <c r="D10" s="2">
-        <v>10001</v>
+        <f t="shared" si="0"/>
+        <v>1001</v>
       </c>
       <c r="E10" s="2">
-        <v>20000</v>
+        <v>2000</v>
       </c>
       <c r="F10" s="2">
-        <v>15000</v>
+        <v>2000</v>
       </c>
       <c r="XEQ10" s="2"/>
       <c r="XER10" s="2"/>
@@ -1166,13 +1170,14 @@
         <v>6</v>
       </c>
       <c r="D11" s="2">
-        <v>20001</v>
+        <f t="shared" si="0"/>
+        <v>2001</v>
       </c>
       <c r="E11" s="2">
-        <v>50000</v>
+        <v>5000</v>
       </c>
       <c r="F11" s="2">
-        <v>35000</v>
+        <v>5000</v>
       </c>
       <c r="XEQ11" s="2"/>
       <c r="XER11" s="2"/>
@@ -1184,13 +1189,14 @@
         <v>7</v>
       </c>
       <c r="D12" s="2">
-        <v>50001</v>
+        <f t="shared" si="0"/>
+        <v>5001</v>
       </c>
       <c r="E12" s="2">
-        <v>100000</v>
+        <v>10000</v>
       </c>
       <c r="F12" s="2">
-        <v>75000</v>
+        <v>10000</v>
       </c>
       <c r="XEQ12" s="2"/>
       <c r="XER12" s="2"/>
@@ -1202,13 +1208,14 @@
         <v>8</v>
       </c>
       <c r="D13" s="2">
-        <v>100001</v>
+        <f t="shared" si="0"/>
+        <v>10001</v>
       </c>
       <c r="E13" s="2">
-        <v>300000</v>
+        <v>20000</v>
       </c>
       <c r="F13" s="2">
-        <v>150000</v>
+        <v>20000</v>
       </c>
       <c r="XEQ13" s="2"/>
       <c r="XER13" s="2"/>
@@ -1220,13 +1227,14 @@
         <v>9</v>
       </c>
       <c r="D14" s="2">
-        <v>300001</v>
+        <f t="shared" si="0"/>
+        <v>20001</v>
       </c>
       <c r="E14" s="2">
-        <v>1000000</v>
+        <v>50000</v>
       </c>
       <c r="F14" s="2">
-        <v>500000</v>
+        <v>50000</v>
       </c>
       <c r="XEQ14" s="2"/>
       <c r="XER14" s="2"/>
@@ -1238,13 +1246,14 @@
         <v>10</v>
       </c>
       <c r="D15" s="2">
-        <v>1000001</v>
+        <f t="shared" si="0"/>
+        <v>50001</v>
       </c>
       <c r="E15" s="2">
-        <v>2000000</v>
+        <v>100000</v>
       </c>
       <c r="F15" s="2">
-        <v>700000</v>
+        <v>100000</v>
       </c>
       <c r="XEQ15" s="2"/>
       <c r="XER15" s="2"/>
@@ -1252,76 +1261,12 @@
     <row r="16" customFormat="1" spans="1:16372">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
-      <c r="C16" s="2">
-        <v>11</v>
-      </c>
-      <c r="D16" s="2">
-        <v>2000001</v>
-      </c>
-      <c r="E16" s="2">
-        <v>3000000</v>
-      </c>
-      <c r="F16" s="2">
-        <v>800000</v>
-      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
       <c r="XEQ16" s="2"/>
       <c r="XER16" s="2"/>
-    </row>
-    <row r="17" spans="3:6">
-      <c r="C17" s="2">
-        <v>12</v>
-      </c>
-      <c r="D17" s="2">
-        <v>3000001</v>
-      </c>
-      <c r="E17" s="2">
-        <v>4000000</v>
-      </c>
-      <c r="F17" s="2">
-        <v>900000</v>
-      </c>
-    </row>
-    <row r="18" spans="3:6">
-      <c r="C18" s="2">
-        <v>13</v>
-      </c>
-      <c r="D18" s="2">
-        <v>4000001</v>
-      </c>
-      <c r="E18" s="2">
-        <v>5000000</v>
-      </c>
-      <c r="F18" s="2">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="19" spans="3:6">
-      <c r="C19" s="2">
-        <v>14</v>
-      </c>
-      <c r="D19" s="2">
-        <v>5000001</v>
-      </c>
-      <c r="E19" s="2">
-        <v>10000000</v>
-      </c>
-      <c r="F19" s="2">
-        <v>1100000</v>
-      </c>
-    </row>
-    <row r="20" spans="3:6">
-      <c r="C20" s="2">
-        <v>15</v>
-      </c>
-      <c r="D20" s="2">
-        <v>10000001</v>
-      </c>
-      <c r="E20" s="2">
-        <v>20000000</v>
-      </c>
-      <c r="F20" s="2">
-        <v>2000000</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/EquipStrengthFeeConfig.xlsx
+++ b/Excel/EquipStrengthFeeConfig.xlsx
@@ -991,7 +991,7 @@
   <dimension ref="A1:XER16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1120,7 +1120,7 @@
         <v>500</v>
       </c>
       <c r="F8" s="2">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="XEQ8" s="2"/>
       <c r="XER8" s="2"/>
@@ -1139,7 +1139,7 @@
         <v>1000</v>
       </c>
       <c r="F9" s="2">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="XEQ9" s="2"/>
       <c r="XER9" s="2"/>
@@ -1158,7 +1158,7 @@
         <v>2000</v>
       </c>
       <c r="F10" s="2">
-        <v>2000</v>
+        <v>500</v>
       </c>
       <c r="XEQ10" s="2"/>
       <c r="XER10" s="2"/>
@@ -1177,7 +1177,7 @@
         <v>5000</v>
       </c>
       <c r="F11" s="2">
-        <v>5000</v>
+        <v>600</v>
       </c>
       <c r="XEQ11" s="2"/>
       <c r="XER11" s="2"/>
@@ -1196,7 +1196,7 @@
         <v>10000</v>
       </c>
       <c r="F12" s="2">
-        <v>10000</v>
+        <v>700</v>
       </c>
       <c r="XEQ12" s="2"/>
       <c r="XER12" s="2"/>
@@ -1215,7 +1215,7 @@
         <v>20000</v>
       </c>
       <c r="F13" s="2">
-        <v>20000</v>
+        <v>800</v>
       </c>
       <c r="XEQ13" s="2"/>
       <c r="XER13" s="2"/>
@@ -1227,14 +1227,14 @@
         <v>9</v>
       </c>
       <c r="D14" s="2">
-        <f t="shared" si="0"/>
+        <f>E13+1</f>
         <v>20001</v>
       </c>
       <c r="E14" s="2">
-        <v>50000</v>
+        <v>30000</v>
       </c>
       <c r="F14" s="2">
-        <v>50000</v>
+        <v>900</v>
       </c>
       <c r="XEQ14" s="2"/>
       <c r="XER14" s="2"/>
@@ -1247,13 +1247,13 @@
       </c>
       <c r="D15" s="2">
         <f t="shared" si="0"/>
-        <v>50001</v>
+        <v>30001</v>
       </c>
       <c r="E15" s="2">
-        <v>100000</v>
+        <v>40000</v>
       </c>
       <c r="F15" s="2">
-        <v>100000</v>
+        <v>1000</v>
       </c>
       <c r="XEQ15" s="2"/>
       <c r="XER15" s="2"/>

--- a/Excel/EquipStrengthFeeConfig.xlsx
+++ b/Excel/EquipStrengthFeeConfig.xlsx
@@ -991,7 +991,7 @@
   <dimension ref="A1:XER16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1227,14 +1227,14 @@
         <v>9</v>
       </c>
       <c r="D14" s="2">
-        <f>E13+1</f>
+        <f t="shared" si="0"/>
         <v>20001</v>
       </c>
       <c r="E14" s="2">
         <v>30000</v>
       </c>
       <c r="F14" s="2">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="XEQ14" s="2"/>
       <c r="XER14" s="2"/>
@@ -1253,7 +1253,7 @@
         <v>40000</v>
       </c>
       <c r="F15" s="2">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="XEQ15" s="2"/>
       <c r="XER15" s="2"/>

--- a/Excel/EquipStrengthFeeConfig.xlsx
+++ b/Excel/EquipStrengthFeeConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -991,7 +991,7 @@
   <dimension ref="A1:XER16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1253,7 +1253,7 @@
         <v>40000</v>
       </c>
       <c r="F15" s="2">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="XEQ15" s="2"/>
       <c r="XER15" s="2"/>

--- a/Excel/EquipStrengthFeeConfig.xlsx
+++ b/Excel/EquipStrengthFeeConfig.xlsx
@@ -9,7 +9,20 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -37,7 +50,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -991,7 +1004,7 @@
   <dimension ref="A1:XER16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1094,7 +1107,7 @@
         <v>2</v>
       </c>
       <c r="D7" s="2">
-        <f t="shared" ref="D7:D15" si="0">E6+1</f>
+        <f t="shared" ref="D7:D16" si="0">E6+1</f>
         <v>101</v>
       </c>
       <c r="E7" s="2">
@@ -1261,10 +1274,19 @@
     <row r="16" customFormat="1" spans="1:16372">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
+      <c r="C16" s="2">
+        <v>11</v>
+      </c>
+      <c r="D16" s="2">
+        <f t="shared" si="0"/>
+        <v>40001</v>
+      </c>
+      <c r="E16" s="2">
+        <v>50000</v>
+      </c>
+      <c r="F16" s="2">
+        <v>1800</v>
+      </c>
       <c r="XEQ16" s="2"/>
       <c r="XER16" s="2"/>
     </row>

--- a/Excel/EquipStrengthFeeConfig.xlsx
+++ b/Excel/EquipStrengthFeeConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1001,10 +1001,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:XER16"/>
+  <dimension ref="A1:XER17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1107,7 +1107,7 @@
         <v>2</v>
       </c>
       <c r="D7" s="2">
-        <f t="shared" ref="D7:D16" si="0">E6+1</f>
+        <f t="shared" ref="D7:D17" si="0">E6+1</f>
         <v>101</v>
       </c>
       <c r="E7" s="2">
@@ -1290,6 +1290,25 @@
       <c r="XEQ16" s="2"/>
       <c r="XER16" s="2"/>
     </row>
+    <row r="17" customFormat="1" spans="1:16372">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2">
+        <v>12</v>
+      </c>
+      <c r="D17" s="2">
+        <f t="shared" si="0"/>
+        <v>50001</v>
+      </c>
+      <c r="E17" s="2">
+        <v>60000</v>
+      </c>
+      <c r="F17" s="2">
+        <v>2600</v>
+      </c>
+      <c r="XEQ17" s="2"/>
+      <c r="XER17" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/Excel/EquipStrengthFeeConfig.xlsx
+++ b/Excel/EquipStrengthFeeConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1001,10 +1001,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:XER17"/>
+  <dimension ref="A1:XER25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1107,7 +1107,7 @@
         <v>2</v>
       </c>
       <c r="D7" s="2">
-        <f t="shared" ref="D7:D17" si="0">E6+1</f>
+        <f t="shared" ref="D7:D25" si="0">E6+1</f>
         <v>101</v>
       </c>
       <c r="E7" s="2">
@@ -1225,7 +1225,7 @@
         <v>10001</v>
       </c>
       <c r="E13" s="2">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="F13" s="2">
         <v>800</v>
@@ -1241,13 +1241,13 @@
       </c>
       <c r="D14" s="2">
         <f t="shared" si="0"/>
-        <v>20001</v>
+        <v>15001</v>
       </c>
       <c r="E14" s="2">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="F14" s="2">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="XEQ14" s="2"/>
       <c r="XER14" s="2"/>
@@ -1260,13 +1260,13 @@
       </c>
       <c r="D15" s="2">
         <f t="shared" si="0"/>
-        <v>30001</v>
+        <v>20001</v>
       </c>
       <c r="E15" s="2">
-        <v>40000</v>
+        <v>25000</v>
       </c>
       <c r="F15" s="2">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="XEQ15" s="2"/>
       <c r="XER15" s="2"/>
@@ -1279,13 +1279,13 @@
       </c>
       <c r="D16" s="2">
         <f t="shared" si="0"/>
-        <v>40001</v>
+        <v>25001</v>
       </c>
       <c r="E16" s="2">
-        <v>50000</v>
+        <v>30000</v>
       </c>
       <c r="F16" s="2">
-        <v>1800</v>
+        <v>1200</v>
       </c>
       <c r="XEQ16" s="2"/>
       <c r="XER16" s="2"/>
@@ -1298,16 +1298,168 @@
       </c>
       <c r="D17" s="2">
         <f t="shared" si="0"/>
-        <v>50001</v>
+        <v>30001</v>
       </c>
       <c r="E17" s="2">
-        <v>60000</v>
+        <v>35000</v>
       </c>
       <c r="F17" s="2">
-        <v>2600</v>
+        <v>1400</v>
       </c>
       <c r="XEQ17" s="2"/>
       <c r="XER17" s="2"/>
+    </row>
+    <row r="18" customFormat="1" spans="1:16372">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2">
+        <v>13</v>
+      </c>
+      <c r="D18" s="2">
+        <f t="shared" si="0"/>
+        <v>35001</v>
+      </c>
+      <c r="E18" s="2">
+        <v>40000</v>
+      </c>
+      <c r="F18" s="2">
+        <v>1600</v>
+      </c>
+      <c r="XEQ18" s="2"/>
+      <c r="XER18" s="2"/>
+    </row>
+    <row r="19" customFormat="1" spans="1:16372">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2">
+        <v>14</v>
+      </c>
+      <c r="D19" s="2">
+        <f t="shared" si="0"/>
+        <v>40001</v>
+      </c>
+      <c r="E19" s="2">
+        <v>45000</v>
+      </c>
+      <c r="F19" s="2">
+        <v>1800</v>
+      </c>
+      <c r="XEQ19" s="2"/>
+      <c r="XER19" s="2"/>
+    </row>
+    <row r="20" customFormat="1" spans="1:16372">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2">
+        <v>15</v>
+      </c>
+      <c r="D20" s="2">
+        <f t="shared" si="0"/>
+        <v>45001</v>
+      </c>
+      <c r="E20" s="2">
+        <v>50000</v>
+      </c>
+      <c r="F20" s="2">
+        <v>2000</v>
+      </c>
+      <c r="XEQ20" s="2"/>
+      <c r="XER20" s="2"/>
+    </row>
+    <row r="21" customFormat="1" spans="1:16372">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2">
+        <v>16</v>
+      </c>
+      <c r="D21" s="2">
+        <f t="shared" si="0"/>
+        <v>50001</v>
+      </c>
+      <c r="E21" s="2">
+        <v>55000</v>
+      </c>
+      <c r="F21" s="2">
+        <v>2200</v>
+      </c>
+      <c r="XEQ21" s="2"/>
+      <c r="XER21" s="2"/>
+    </row>
+    <row r="22" customFormat="1" spans="1:16372">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2">
+        <v>17</v>
+      </c>
+      <c r="D22" s="2">
+        <f t="shared" si="0"/>
+        <v>55001</v>
+      </c>
+      <c r="E22" s="2">
+        <v>60000</v>
+      </c>
+      <c r="F22" s="2">
+        <v>2400</v>
+      </c>
+      <c r="XEQ22" s="2"/>
+      <c r="XER22" s="2"/>
+    </row>
+    <row r="23" customFormat="1" spans="1:16372">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2">
+        <v>18</v>
+      </c>
+      <c r="D23" s="2">
+        <f t="shared" si="0"/>
+        <v>60001</v>
+      </c>
+      <c r="E23" s="2">
+        <v>65000</v>
+      </c>
+      <c r="F23" s="2">
+        <v>2600</v>
+      </c>
+      <c r="XEQ23" s="2"/>
+      <c r="XER23" s="2"/>
+    </row>
+    <row r="24" customFormat="1" spans="1:16372">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2">
+        <v>19</v>
+      </c>
+      <c r="D24" s="2">
+        <f t="shared" si="0"/>
+        <v>65001</v>
+      </c>
+      <c r="E24" s="2">
+        <v>70000</v>
+      </c>
+      <c r="F24" s="2">
+        <v>3000</v>
+      </c>
+      <c r="XEQ24" s="2"/>
+      <c r="XER24" s="2"/>
+    </row>
+    <row r="25" customFormat="1" spans="1:16372">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2">
+        <v>20</v>
+      </c>
+      <c r="D25" s="2">
+        <f t="shared" si="0"/>
+        <v>70001</v>
+      </c>
+      <c r="E25" s="2">
+        <v>75000</v>
+      </c>
+      <c r="F25" s="2">
+        <v>3500</v>
+      </c>
+      <c r="XEQ25" s="2"/>
+      <c r="XER25" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/EquipStrengthFeeConfig.xlsx
+++ b/Excel/EquipStrengthFeeConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1001,10 +1001,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:XER25"/>
+  <dimension ref="A1:XER27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1107,7 +1107,7 @@
         <v>2</v>
       </c>
       <c r="D7" s="2">
-        <f t="shared" ref="D7:D25" si="0">E6+1</f>
+        <f t="shared" ref="D7:D27" si="0">E6+1</f>
         <v>101</v>
       </c>
       <c r="E7" s="2">
@@ -1461,6 +1461,41 @@
       <c r="XEQ25" s="2"/>
       <c r="XER25" s="2"/>
     </row>
+    <row r="26" customFormat="1" spans="1:16372">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2">
+        <v>21</v>
+      </c>
+      <c r="D26" s="2">
+        <f t="shared" si="0"/>
+        <v>75001</v>
+      </c>
+      <c r="E26" s="2">
+        <v>80000</v>
+      </c>
+      <c r="F26" s="2">
+        <v>4000</v>
+      </c>
+      <c r="XEQ26" s="2"/>
+      <c r="XER26" s="2"/>
+    </row>
+    <row r="27" spans="3:7">
+      <c r="C27" s="2">
+        <v>22</v>
+      </c>
+      <c r="D27" s="2">
+        <f t="shared" si="0"/>
+        <v>80001</v>
+      </c>
+      <c r="E27" s="2">
+        <v>85000</v>
+      </c>
+      <c r="F27" s="2">
+        <v>4500</v>
+      </c>
+      <c r="G27"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/Excel/EquipStrengthFeeConfig.xlsx
+++ b/Excel/EquipStrengthFeeConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1001,10 +1001,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:XER27"/>
+  <dimension ref="A1:XER28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1107,7 +1107,7 @@
         <v>2</v>
       </c>
       <c r="D7" s="2">
-        <f t="shared" ref="D7:D27" si="0">E6+1</f>
+        <f t="shared" ref="D7:D28" si="0">E6+1</f>
         <v>101</v>
       </c>
       <c r="E7" s="2">
@@ -1496,6 +1496,22 @@
       </c>
       <c r="G27"/>
     </row>
+    <row r="28" spans="3:7">
+      <c r="C28" s="2">
+        <v>23</v>
+      </c>
+      <c r="D28" s="2">
+        <f t="shared" si="0"/>
+        <v>85001</v>
+      </c>
+      <c r="E28" s="2">
+        <v>90000</v>
+      </c>
+      <c r="F28" s="2">
+        <v>5000</v>
+      </c>
+      <c r="G28"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/Excel/EquipStrengthFeeConfig.xlsx
+++ b/Excel/EquipStrengthFeeConfig.xlsx
@@ -1001,10 +1001,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:XER28"/>
+  <dimension ref="A1:XER32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1107,7 +1107,7 @@
         <v>2</v>
       </c>
       <c r="D7" s="2">
-        <f t="shared" ref="D7:D28" si="0">E6+1</f>
+        <f t="shared" ref="D7:D32" si="0">E6+1</f>
         <v>101</v>
       </c>
       <c r="E7" s="2">
@@ -1512,6 +1512,70 @@
       </c>
       <c r="G28"/>
     </row>
+    <row r="29" spans="3:7">
+      <c r="C29" s="2">
+        <v>24</v>
+      </c>
+      <c r="D29" s="2">
+        <f t="shared" si="0"/>
+        <v>90001</v>
+      </c>
+      <c r="E29" s="2">
+        <v>95000</v>
+      </c>
+      <c r="F29" s="2">
+        <v>5750</v>
+      </c>
+      <c r="G29"/>
+    </row>
+    <row r="30" spans="3:7">
+      <c r="C30" s="2">
+        <v>25</v>
+      </c>
+      <c r="D30" s="2">
+        <f t="shared" si="0"/>
+        <v>95001</v>
+      </c>
+      <c r="E30" s="2">
+        <v>100000</v>
+      </c>
+      <c r="F30" s="2">
+        <v>6500</v>
+      </c>
+      <c r="G30"/>
+    </row>
+    <row r="31" spans="3:7">
+      <c r="C31" s="2">
+        <v>26</v>
+      </c>
+      <c r="D31" s="2">
+        <f t="shared" si="0"/>
+        <v>100001</v>
+      </c>
+      <c r="E31" s="2">
+        <v>110000</v>
+      </c>
+      <c r="F31" s="2">
+        <v>7500</v>
+      </c>
+      <c r="G31"/>
+    </row>
+    <row r="32" spans="3:7">
+      <c r="C32" s="2">
+        <v>27</v>
+      </c>
+      <c r="D32" s="2">
+        <f t="shared" si="0"/>
+        <v>110001</v>
+      </c>
+      <c r="E32" s="2">
+        <v>120000</v>
+      </c>
+      <c r="F32" s="2">
+        <v>8500</v>
+      </c>
+      <c r="G32"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/Excel/EquipStrengthFeeConfig.xlsx
+++ b/Excel/EquipStrengthFeeConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1001,10 +1001,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:XER32"/>
+  <dimension ref="A1:XER34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1107,7 +1107,7 @@
         <v>2</v>
       </c>
       <c r="D7" s="2">
-        <f t="shared" ref="D7:D32" si="0">E6+1</f>
+        <f t="shared" ref="D7:D34" si="0">E6+1</f>
         <v>101</v>
       </c>
       <c r="E7" s="2">
@@ -1576,6 +1576,38 @@
       </c>
       <c r="G32"/>
     </row>
+    <row r="33" spans="3:7">
+      <c r="C33" s="2">
+        <v>28</v>
+      </c>
+      <c r="D33" s="2">
+        <f t="shared" si="0"/>
+        <v>120001</v>
+      </c>
+      <c r="E33" s="2">
+        <v>130000</v>
+      </c>
+      <c r="F33" s="2">
+        <v>10000</v>
+      </c>
+      <c r="G33"/>
+    </row>
+    <row r="34" spans="3:7">
+      <c r="C34" s="2">
+        <v>29</v>
+      </c>
+      <c r="D34" s="2">
+        <f t="shared" si="0"/>
+        <v>130001</v>
+      </c>
+      <c r="E34" s="2">
+        <v>140000</v>
+      </c>
+      <c r="F34" s="2">
+        <v>11500</v>
+      </c>
+      <c r="G34"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/Excel/EquipStrengthFeeConfig.xlsx
+++ b/Excel/EquipStrengthFeeConfig.xlsx
@@ -1004,7 +1004,7 @@
   <dimension ref="A1:XER34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1107,7 +1107,7 @@
         <v>2</v>
       </c>
       <c r="D7" s="2">
-        <f t="shared" ref="D7:D34" si="0">E6+1</f>
+        <f t="shared" ref="D7:D36" si="0">E6+1</f>
         <v>101</v>
       </c>
       <c r="E7" s="2">
@@ -1524,7 +1524,7 @@
         <v>95000</v>
       </c>
       <c r="F29" s="2">
-        <v>5750</v>
+        <v>5500</v>
       </c>
       <c r="G29"/>
     </row>
@@ -1540,7 +1540,7 @@
         <v>100000</v>
       </c>
       <c r="F30" s="2">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="G30"/>
     </row>
@@ -1556,7 +1556,7 @@
         <v>110000</v>
       </c>
       <c r="F31" s="2">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="G31"/>
     </row>
@@ -1572,7 +1572,7 @@
         <v>120000</v>
       </c>
       <c r="F32" s="2">
-        <v>8500</v>
+        <v>7000</v>
       </c>
       <c r="G32"/>
     </row>
@@ -1588,7 +1588,7 @@
         <v>130000</v>
       </c>
       <c r="F33" s="2">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="G33"/>
     </row>
@@ -1601,10 +1601,10 @@
         <v>130001</v>
       </c>
       <c r="E34" s="2">
-        <v>140000</v>
+        <v>160000</v>
       </c>
       <c r="F34" s="2">
-        <v>11500</v>
+        <v>8500</v>
       </c>
       <c r="G34"/>
     </row>

--- a/Excel/EquipStrengthFeeConfig.xlsx
+++ b/Excel/EquipStrengthFeeConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="24045" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1001,10 +1001,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:XER34"/>
+  <dimension ref="A1:XER35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1608,6 +1608,22 @@
       </c>
       <c r="G34"/>
     </row>
+    <row r="35" spans="3:7">
+      <c r="C35" s="2">
+        <v>30</v>
+      </c>
+      <c r="D35" s="2">
+        <f t="shared" si="0"/>
+        <v>160001</v>
+      </c>
+      <c r="E35" s="2">
+        <v>200000</v>
+      </c>
+      <c r="F35" s="2">
+        <v>9000</v>
+      </c>
+      <c r="G35"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/Excel/EquipStrengthFeeConfig.xlsx
+++ b/Excel/EquipStrengthFeeConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24045" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1001,10 +1001,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:XER35"/>
+  <dimension ref="A1:XER36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1624,6 +1624,21 @@
       </c>
       <c r="G35"/>
     </row>
+    <row r="36" spans="3:6">
+      <c r="C36" s="2">
+        <v>31</v>
+      </c>
+      <c r="D36" s="2">
+        <f t="shared" si="0"/>
+        <v>200001</v>
+      </c>
+      <c r="E36" s="2">
+        <v>300000</v>
+      </c>
+      <c r="F36" s="2">
+        <v>10000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/Excel/EquipStrengthFeeConfig.xlsx
+++ b/Excel/EquipStrengthFeeConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1001,10 +1001,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:XER36"/>
+  <dimension ref="A1:XER37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1107,7 +1107,7 @@
         <v>2</v>
       </c>
       <c r="D7" s="2">
-        <f t="shared" ref="D7:D36" si="0">E6+1</f>
+        <f t="shared" ref="D7:D37" si="0">E6+1</f>
         <v>101</v>
       </c>
       <c r="E7" s="2">
@@ -1639,6 +1639,21 @@
         <v>10000</v>
       </c>
     </row>
+    <row r="37" spans="3:6">
+      <c r="C37" s="2">
+        <v>32</v>
+      </c>
+      <c r="D37" s="2">
+        <f t="shared" si="0"/>
+        <v>300001</v>
+      </c>
+      <c r="E37" s="2">
+        <v>500000</v>
+      </c>
+      <c r="F37" s="2">
+        <v>12000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
